--- a/Documentação/Backlog_Projeto.xlsx
+++ b/Documentação/Backlog_Projeto.xlsx
@@ -5,46 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amilt\OneDrive\Área de Trabalho\pesquisa_inovacao\REQUISITOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amilt\OneDrive\Documentos\Natanael\pesquisa_inovacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{BC9DA050-9AF5-4873-BBD5-E14A05382773}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9D3C5409-1EF1-4E09-9942-542B9EF0CF13}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{68444F77-8402-4E5A-80A4-FE874C48B467}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5054D17F-4916-4F0F-84EB-D21B86576ADE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog-Completo" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>REQUISITO</t>
-  </si>
-  <si>
-    <t>CLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>TAMANHO</t>
-  </si>
-  <si>
-    <t>SPRINT</t>
-  </si>
-  <si>
-    <t>ORDEM                  DE EXECUÇÃO</t>
-  </si>
-  <si>
     <t>A aba Produto deve conter as informações completas do Produto e um simulador financeiro</t>
   </si>
   <si>
@@ -66,36 +56,15 @@
     <t>A home deve conter um menu de navegação com as abas: Empresa, Produto, Cadastro e Login</t>
   </si>
   <si>
-    <t>Na aba castrado deverá perguntar se a pessoa é cliente ou usuário</t>
-  </si>
-  <si>
     <t>Para o cadastro do cliente será solicitados Nome completo, CPF, data de nascimento, nome da empresa, CNPJ, e-mail corporativo, nome de usuário e senha</t>
   </si>
   <si>
-    <t>Para o cadastro do usuário será solicitados Nome completo, e-mail, nome de usuário e senha</t>
-  </si>
-  <si>
     <t>Na área de Login é solicitado um e-mail ou nome de usuário e senha</t>
   </si>
   <si>
     <t>Será feita uma validação do usuário para identificar se é cliente ou usuário final</t>
   </si>
   <si>
-    <t>Na área do cliente, quando ele pesquisar a linha, dia e horario será exibido uma  lista dos onibus rodando durante o periodo solicitado</t>
-  </si>
-  <si>
-    <t>Ao selecionar o onibs especifico, será exibido as informações dele tais como: Motorista e um grafico com a quantidade de passageiros que entraram, que sairam, um delta dos passageiros totais e o valor arrecadado naquela viagem</t>
-  </si>
-  <si>
-    <t>Na área do usuário final, ele poderá escolher uma linha de onibus</t>
-  </si>
-  <si>
-    <t>Ao selecionar a linha de onibus, será exibido um lista dos onibus rodando, sua localização no percurso e sua lotação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O usuário final terá a opção de avaliar a linha e adicioná-la a uma lista de favoritos </t>
-  </si>
-  <si>
     <t>ESSENCIAL</t>
   </si>
   <si>
@@ -141,9 +110,6 @@
     <t>RF11</t>
   </si>
   <si>
-    <t>RF12</t>
-  </si>
-  <si>
     <t>RF13</t>
   </si>
   <si>
@@ -153,23 +119,44 @@
     <t>RF15</t>
   </si>
   <si>
-    <t>RF16</t>
-  </si>
-  <si>
-    <t>RF17</t>
-  </si>
-  <si>
-    <t>RF18</t>
-  </si>
-  <si>
-    <t>RF19</t>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Ordem                 De Execução</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>DESEJAVEL</t>
+  </si>
+  <si>
+    <t>Na área de Login deverá perguntar se ele deseja se cadastrar ou fazer entrar no site</t>
+  </si>
+  <si>
+    <t>Na área do cliente, quando ele pesquisar , terá acesso a informações em tempo real, do dia, mês e ano do que foi detectado pelo sensor em relatório.</t>
+  </si>
+  <si>
+    <t>1 Sprint</t>
+  </si>
+  <si>
+    <t>2 Sprint</t>
+  </si>
+  <si>
+    <t>3 Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,7 +174,13 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF9900"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,18 +195,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF220E78"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -243,9 +236,11 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
       </bottom>
       <diagonal/>
     </border>
@@ -259,20 +254,18 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -283,11 +276,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -295,23 +288,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
@@ -319,7 +312,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -328,27 +321,29 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
       </bottom>
       <diagonal/>
     </border>
@@ -356,12 +351,59 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
       </bottom>
       <diagonal/>
     </border>
@@ -369,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -377,43 +419,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,6 +481,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF220E78"/>
+      <color rgb="FFFF9900"/>
+      <color rgb="FF2F14A4"/>
+      <color rgb="FF8EC6F4"/>
       <color rgb="FF0033CC"/>
       <color rgb="FFE09B40"/>
       <color rgb="FF2BEBF5"/>
@@ -703,416 +766,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC78A60-5950-42C1-AED9-00FDA6776608}">
-  <dimension ref="B1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="B3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G5" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13">
+        <v>13</v>
+      </c>
+      <c r="F8" s="13">
+        <v>6</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="19">
+        <v>21</v>
+      </c>
+      <c r="F11" s="19">
+        <v>9</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>11</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>13</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3">
+        <v>14</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="19">
         <v>8</v>
       </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="11">
-        <v>8</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11">
-        <v>4</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="11">
-        <v>13</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="11">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="11">
-        <v>21</v>
-      </c>
-      <c r="F10" s="11">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="11">
-        <v>21</v>
-      </c>
-      <c r="F11" s="11">
-        <v>9</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="11">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11">
-        <v>10</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="11">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11">
-        <v>11</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="F16" s="19">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="11">
-        <v>13</v>
-      </c>
-      <c r="F14" s="11">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="G16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="11">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11">
-        <v>13</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="11">
-        <v>21</v>
-      </c>
-      <c r="F16" s="11">
-        <v>14</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="11">
-        <v>8</v>
-      </c>
-      <c r="F17" s="11">
-        <v>15</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="11">
-        <v>21</v>
-      </c>
-      <c r="F18" s="11">
-        <v>16</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="11">
-        <v>5</v>
-      </c>
-      <c r="F19" s="11">
-        <v>17</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="11">
-        <v>21</v>
-      </c>
-      <c r="F20" s="11">
-        <v>18</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="16">
-        <v>8</v>
-      </c>
-      <c r="F21" s="16">
-        <v>19</v>
-      </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1174,9 +1198,6 @@
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documentação/Backlog_Projeto.xlsx
+++ b/Documentação/Backlog_Projeto.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amilt\OneDrive\Documentos\Natanael\pesquisa_inovacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\control-block\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{68444F77-8402-4E5A-80A4-FE874C48B467}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5054D17F-4916-4F0F-84EB-D21B86576ADE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog-Completo" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -150,12 +149,21 @@
   </si>
   <si>
     <t>3 Sprint</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>A fazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -407,11 +415,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -471,6 +499,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="B3:G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,8 +819,8 @@
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -802,8 +839,11 @@
       <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
@@ -822,8 +862,11 @@
       <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H3" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
@@ -842,8 +885,11 @@
       <c r="G4" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
@@ -862,8 +908,11 @@
       <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H5" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
@@ -882,8 +931,11 @@
       <c r="G6" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
@@ -902,8 +954,11 @@
       <c r="G7" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
@@ -922,8 +977,11 @@
       <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H8" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
@@ -942,8 +1000,11 @@
       <c r="G9" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
@@ -962,8 +1023,9 @@
       <c r="G10" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
@@ -982,8 +1044,11 @@
       <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>24</v>
       </c>
@@ -1002,8 +1067,9 @@
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
@@ -1023,7 +1089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
@@ -1043,7 +1109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>27</v>
       </c>
@@ -1063,7 +1129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>28</v>
       </c>

--- a/Documentação/Backlog_Projeto.xlsx
+++ b/Documentação/Backlog_Projeto.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\control-block\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amilt\OneDrive\Área de Trabalho\control-block\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_803DDAD330E202B778A26EC0BCB8F5883122A150" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDDE3E75-7345-4E4E-ABC4-34498C848BF2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog-Completo" sheetId="3" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -163,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,23 +419,31 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -505,9 +509,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,11 +804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +932,7 @@
       <c r="G6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -954,7 +955,7 @@
       <c r="G7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -977,7 +978,7 @@
       <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1000,7 +1001,7 @@
       <c r="G9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1023,7 +1024,7 @@
       <c r="G10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
@@ -1044,7 +1045,7 @@
       <c r="G11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1067,7 +1068,9 @@
       <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
@@ -1088,6 +1091,9 @@
       <c r="G13" s="16" t="s">
         <v>39</v>
       </c>
+      <c r="H13" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
@@ -1108,6 +1114,9 @@
       <c r="G14" s="16" t="s">
         <v>39</v>
       </c>
+      <c r="H14" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
@@ -1128,6 +1137,9 @@
       <c r="G15" s="16" t="s">
         <v>39</v>
       </c>
+      <c r="H15" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
@@ -1147,6 +1159,9 @@
       </c>
       <c r="G16" s="20" t="s">
         <v>39</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">

--- a/Documentação/Backlog_Projeto.xlsx
+++ b/Documentação/Backlog_Projeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amilt\OneDrive\Área de Trabalho\control-block\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\control-block\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_803DDAD330E202B778A26EC0BCB8F5883122A150" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDDE3E75-7345-4E4E-ABC4-34498C848BF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E568EC-C76C-47FE-B10D-89D7E866F5A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -151,16 +151,13 @@
   </si>
   <si>
     <t>Feito</t>
-  </si>
-  <si>
-    <t>A fazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +179,6 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF9900"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,18 +189,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF220E78"/>
+        <fgColor rgb="FF00A9F3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,217 +223,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFF00"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFF00"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFF00"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFF00"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFF00"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFF00"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFF00"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFF00"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFF00"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFF00"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -451,65 +235,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,16 +255,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00A9F3"/>
+      <color rgb="FFEB8DD7"/>
+      <color rgb="FFEB91D8"/>
+      <color rgb="FFFF7C80"/>
       <color rgb="FF220E78"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF2F14A4"/>
       <color rgb="FF8EC6F4"/>
       <color rgb="FF0033CC"/>
       <color rgb="FFE09B40"/>
-      <color rgb="FF2BEBF5"/>
-      <color rgb="FF000000"/>
-      <color rgb="FFFF3300"/>
-      <color rgb="FFEF7BD6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -805,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H52"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H16"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +556,6 @@
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -840,35 +575,35 @@
       <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="3">
         <v>8</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -883,15 +618,15 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -906,84 +641,84 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="3">
         <v>8</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="3">
         <v>13</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -998,15 +733,15 @@
       <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1021,59 +756,61 @@
       <c r="F10" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="3">
         <v>21</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="3">
         <v>9</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>42</v>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="3">
         <v>10</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>42</v>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1088,15 +825,15 @@
       <c r="F13" s="3">
         <v>11</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>42</v>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1111,15 +848,15 @@
       <c r="F14" s="3">
         <v>13</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>42</v>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1134,34 +871,34 @@
       <c r="F15" s="3">
         <v>14</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>42</v>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="3">
         <v>8</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="3">
         <v>15</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>42</v>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
